--- a/biology/Zoologie/Hyperopisus_bebe/Hyperopisus_bebe.xlsx
+++ b/biology/Zoologie/Hyperopisus_bebe/Hyperopisus_bebe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyperopisus bebe est une espèce de poissons-éléphants de la famille des Mormyridae, la seule du genre Hyperopisus.
 Cette espèce est connue dans de nombreux fleuves de la moitié nord de l'Afrique, allant du Sénégal au bassin du Nil. Il atteint une longueur de 51 cm (20 po).
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Hyperopisus bebe (Lacepède, 1803)[1].
-L'espèce a été initialement classée dans le genre Mormyrus sous le protonyme Mormyrus bebe Lacepède, 1803[1].
-Hyperopisus bebe a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Hyperopisus bebe (Lacepède, 1803).
+L'espèce a été initialement classée dans le genre Mormyrus sous le protonyme Mormyrus bebe Lacepède, 1803.
+Hyperopisus bebe a pour synonymes :
 Hyperopisus bebe bebe
 Hyperopisus bebe chariensis Blache, 1964
 Hyperopisus bebe occidentalis Günther, 1866
